--- a/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\Dokumenty\Excel - součástky\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFBE209C-CE38-4763-923B-C37338CD8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99CF9E-8CDE-4B39-9EB2-01E5238560ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
   </bookViews>

--- a/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simak\OneDrive\Dokumenty\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42060\Desktop\ŠKOLA\Mini sumo\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B99CF9E-8CDE-4B39-9EB2-01E5238560ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7681FDE7-1BED-4FE5-867D-F7EDD5E689B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -71,12 +71,48 @@
     <t>rizistor 100</t>
   </si>
   <si>
+    <t>přijímač IR</t>
+  </si>
+  <si>
+    <t>ovladač IR</t>
+  </si>
+  <si>
+    <t>lejzrová sevzor</t>
+  </si>
+  <si>
+    <t>shotkyho dioda 3A</t>
+  </si>
+  <si>
+    <t>shotkyho dioda 1A</t>
+  </si>
+  <si>
+    <t>trimmer</t>
+  </si>
+  <si>
+    <t>1 správný</t>
+  </si>
+  <si>
+    <t>senzorový čáry</t>
+  </si>
+  <si>
+    <t>Bórykův spínač</t>
+  </si>
+  <si>
+    <t>58 pinů</t>
+  </si>
+  <si>
+    <t>hřeben M</t>
+  </si>
+  <si>
+    <t>hřeben F</t>
+  </si>
+  <si>
     <r>
       <t>kondenzátor 0,1</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -91,7 +127,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -106,7 +142,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -115,48 +151,12 @@
       <t>µF 16V</t>
     </r>
   </si>
-  <si>
-    <t>přijímač IR</t>
-  </si>
-  <si>
-    <t>ovladač IR</t>
-  </si>
-  <si>
-    <t>lejzrová sevzor</t>
-  </si>
-  <si>
-    <t>shotkyho dioda 3A</t>
-  </si>
-  <si>
-    <t>shotkyho dioda 1A</t>
-  </si>
-  <si>
-    <t>trimmer</t>
-  </si>
-  <si>
-    <t>1 správný</t>
-  </si>
-  <si>
-    <t>senzorový čáry</t>
-  </si>
-  <si>
-    <t>Bórykův spínač</t>
-  </si>
-  <si>
-    <t>58 pinů</t>
-  </si>
-  <si>
-    <t>hřeben M</t>
-  </si>
-  <si>
-    <t>hřeben F</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,22 +166,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31F42C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,21 +215,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF31F42C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,214 +562,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B5711D-92DE-4272-B23B-BDAF399D4734}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
+      <c r="B18" s="2">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\42060\Desktop\ŠKOLA\Mini sumo\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaryj\Desktop\Škola\Mini sumo\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7681FDE7-1BED-4FE5-867D-F7EDD5E689B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A9CF0-DBCC-4949-8B1D-904674D327E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>nové</t>
-  </si>
-  <si>
-    <t>použité</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>H most</t>
   </si>
@@ -96,15 +90,6 @@
   </si>
   <si>
     <t>Bórykův spínač</t>
-  </si>
-  <si>
-    <t>58 pinů</t>
-  </si>
-  <si>
-    <t>hřeben M</t>
-  </si>
-  <si>
-    <t>hřeben F</t>
   </si>
   <si>
     <r>
@@ -150,6 +135,60 @@
       </rPr>
       <t>µF 16V</t>
     </r>
+  </si>
+  <si>
+    <t>kill streak - savvo</t>
+  </si>
+  <si>
+    <t>XT-30 F</t>
+  </si>
+  <si>
+    <t>hřeben</t>
+  </si>
+  <si>
+    <t>Dutinková lišta</t>
+  </si>
+  <si>
+    <t>54 pinů</t>
+  </si>
+  <si>
+    <t>21 pinů</t>
+  </si>
+  <si>
+    <t>Motor 12V 300RPM</t>
+  </si>
+  <si>
+    <t>Motor 12vV 150RPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>87 pinů</t>
+  </si>
+  <si>
+    <t>Baterie 9V</t>
+  </si>
+  <si>
+    <t>El. Páska</t>
+  </si>
+  <si>
+    <t>IR ovladač</t>
+  </si>
+  <si>
+    <t>nové/OK</t>
+  </si>
+  <si>
+    <t>použité/BAD</t>
+  </si>
+  <si>
+    <t>Kabel krátký M-M</t>
+  </si>
+  <si>
+    <t>cca 55</t>
+  </si>
+  <si>
+    <t>Konektro na Bat. 9V</t>
   </si>
 </sst>
 </file>
@@ -234,15 +273,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -562,37 +604,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B5711D-92DE-4272-B23B-BDAF399D4734}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="5" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -601,150 +657,152 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
+    <row r="4" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
+    <row r="5" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
+    <row r="6" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
+    <row r="8" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>37</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
+    <row r="9" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -752,44 +810,141 @@
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="5" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="4"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaryj\Desktop\Škola\Mini sumo\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2A9CF0-DBCC-4949-8B1D-904674D327E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42839A-7A0B-4C59-9929-7C7A769BE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>

--- a/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
+++ b/- DOCS -/Excel - COMPONENTS/aktuální seznam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\OneDrive\Изображения\Документы\GitHub\RoboCop\- DOCS -\Excel - COMPONENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C42839A-7A0B-4C59-9929-7C7A769BE7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05BB14D-0728-4668-8A31-E677BA10E61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CB5F3192-D3E9-42B8-A9EB-F1F11AD6B5B5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>H most</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Konektro na Bat. 9V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vložky M3 </t>
   </si>
 </sst>
 </file>
@@ -651,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -662,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -841,7 +844,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3"/>
     </row>
@@ -920,8 +923,12 @@
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="4"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
